--- a/BeautifulSoup/Excel/naver_tv.xlsx
+++ b/BeautifulSoup/Excel/naver_tv.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,51 +446,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[스페셜 메이킹] 카메라만 꺼지면 쏘스윗 꽁냥꽁냥♥ 신혜선x김정현x설인아x나인우! 소봉즈의 아무말 케미까지!</t>
+          <t>‘인생캐 천서진’ 김소연, 광기의 피아노 연기 썰♨</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>철인왕후</t>
+          <t>집사부일체</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>재생 수53,405</t>
+          <t>재생 수36,527</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>좋아요 수853</t>
+          <t>좋아요 수534</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[펜트하우스] 이지아×박은석 ‘코멘터리’가 이렇게 설렌다구요?</t>
+          <t>[선공개] 송중기x전여빈, 떡볶이 먹방 중 터진 대참사?!</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>펜트하우스 2</t>
+          <t>빈센조</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>재생 수174,213</t>
+          <t>재생 수180,496</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>좋아요 수3,231</t>
+          <t>좋아요 수1,486</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>‘한잔의 눈물’ ♬ 믿고 듣는 영웅이 표 감성 무대~ TV CHOSUN 210205 방송</t>
+          <t>1절 만으로 전국 누나들 마음♡접수👍🏻 ‘여자여자여자’♪  TV CHOSUN 210219 방송</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -500,63 +500,63 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>재생 수127,108</t>
+          <t>재생 수63,051</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>좋아요 수17,834</t>
+          <t>좋아요 수13,477</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[스페셜 메이킹] 카메라만 꺼지면 쏘스윗 꽁냥꽁냥♥ 신혜선x김정현x설인아x나인우! 소봉즈의 아무말 케미까지!</t>
+          <t>‘강다니엘’의 솔직하고 꾸밈없는 이야기! ‘PARANOIA’</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>철인왕후</t>
+          <t>SBS 인기가요</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>재생 수54,705</t>
+          <t>재생 수35,550</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>좋아요 수869</t>
+          <t>좋아요 수5,702</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[펜트하우스] 이지아×박은석 ‘코멘터리’가 이렇게 설렌다구요?</t>
+          <t>임영웅X갈소원 ‘행복을 주는 사람’♪ 환상의 짝꿍☺ TV CHOSUN 210219 방송</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>펜트하우스 2</t>
+          <t>사랑의 콜센타</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>재생 수174,499</t>
+          <t>재생 수81,669</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>좋아요 수3,236</t>
+          <t>좋아요 수11,364</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>‘한잔의 눈물’ ♬ 믿고 듣는 영웅이 표 감성 무대~ TV CHOSUN 210205 방송</t>
+          <t>청국장 제대로 끓였다! ‘미움인지 그리움인지’♪  TV CHOSUN 210219 방송</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -566,1009 +566,1009 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>재생 수127,160</t>
+          <t>재생 수36,009</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>좋아요 수17,837</t>
+          <t>좋아요 수8,376</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>여자배구 이재영·이다영, 학폭 인정…"철 없었다" 사과</t>
+          <t>김호중 ‘그대 향한 사랑’ ♫ 본업도 완벽..❤</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>JTBC뉴스</t>
+          <t>사랑의 콜센타</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>재생 수38,836</t>
+          <t>재생 수750,881</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>좋아요 수62</t>
+          <t>좋아요 수30,427</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>＂한유정, 나랑 결혼해 줄래?＂ 기적처럼 행복한 결말 맞은 강은탁♥엄현경  | KBS 210210 방송</t>
+          <t>[소름 주의] 유진, 김소연 대신 소름 돋는 목소리 선사</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>비밀의 남자</t>
+          <t>펜트하우스 2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>재생 수23,111</t>
+          <t>재생 수270,452</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>좋아요 수162</t>
+          <t>좋아요 수1,853</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>너튜브에 올라온 리코더 연주영상이 500만뷰...! 한예종 리코더학과 남형주 자기님 | tvN 210210 방송</t>
+          <t>영탁이와 함께 추억 속으로~ ‘서울 이곳은’♫ TV CHOSUN 210219 방송</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>유 퀴즈 온 더 블럭</t>
+          <t>사랑의 콜센타</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>재생 수14,952</t>
+          <t>재생 수28,591</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>좋아요 수136</t>
+          <t>좋아요 수7,254</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[MV] 김호중(Kim Hojoong) _ 만개(In full bloom)(Prod. 신지후(Shin Ji Hoo))</t>
+          <t>[부활 엔딩] “잘 지내보자” 유진, 지옥 뚫고 돌아오다!</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1theK (원더케이)</t>
+          <t>펜트하우스 2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>재생 수369,816</t>
+          <t>재생 수377,365</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>좋아요 수16,349</t>
+          <t>좋아요 수2,379</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>복수를 끝내자마자 쓰러진 강은탁... 모두의 걱정 속, 과연 뇌 수술 결과는...?!   | KBS 210210 방송</t>
+          <t>‘불타오르네’ 신은경×봉태규, 입술 박치기에 불꽃 활활♨</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>비밀의 남자</t>
+          <t>펜트하우스 2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>재생 수19,564</t>
+          <t>재생 수274,893</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>좋아요 수78</t>
+          <t>좋아요 수928</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>이시강이 강은탁에게 남긴 편지 ＂그게 살인자 주화연의 아들, 차서준의 몫이니까...＂ | KBS 210210 방송</t>
+          <t>'1위 추격하자' 한국도로공사를 상대로 극적인 역전승을 거두는 GS칼텍스</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>비밀의 남자</t>
+          <t>프로배구 네이버스포츠</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>재생 수20,829</t>
+          <t>재생 수11,117</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>좋아요 수87</t>
+          <t>좋아요 수112</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>백혈병에 가족들의 외면까지... 나락에 빠진 이채영, 과연 재판 결과는?! | KBS 210210 방송</t>
+          <t>"에어포켓이 살렸다"...공기 남은 공간서 40시간 버텨</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>비밀의 남자</t>
+          <t>뉴스는 YTN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>재생 수27,636</t>
+          <t>재생 수11,106</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>좋아요 수96</t>
+          <t>좋아요 수35</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>＂여보! 나 여기서 좀 꺼내줘요...!＂ 교도소 안에서 비참한 결말 맞은 이채영과 김희정...    | KBS 210210 방송</t>
+          <t>‘복수 퀸’ 이지아, 숨겨왔던 스포에 깜짝 놀라 본캐 소환!</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>비밀의 남자</t>
+          <t>집사부일체</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>재생 수23,658</t>
+          <t>재생 수9,480</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>좋아요 수76</t>
+          <t>좋아요 수167</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>마침내 찾아온 복수의 순간 ＂한유라에게 징역 30년, 주화연에게 무기징역을 구형합니다!＂  | KBS 210210 방송</t>
+          <t>최대집 의협회장 "백신 접종 돕는 건 의사 의무 아냐"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>비밀의 남자</t>
+          <t>JTBC뉴스</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>재생 수20,349</t>
+          <t>재생 수9,397</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>좋아요 수67</t>
+          <t>좋아요 수6</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>＂드디어 오늘이네요...＂ 마침내 이채영과 김희정을 심판하기 위해 재판정에 선 강은탁  | KBS 210210 방송</t>
+          <t>☆최초공개☆ 탁이의 깜짝 선물🎁 신곡 ‘이불’♬ TV CHOSUN 210212 방송</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>비밀의 남자</t>
+          <t>사랑의 콜센타</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>재생 수17,208</t>
+          <t>재생 수103,007</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>좋아요 수48</t>
+          <t>좋아요 수11,287</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>영웅이 사랑♡하는 거 말고 ‘뭣이 중헌디’ ♪ TV CHOSUN 210129 방송</t>
+          <t>‘설렘 주의보’ 유진♥윤종훈, 꽁냥꽁냥 키스 (ft. 김소연 질투)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>사랑의 콜센타</t>
+          <t>펜트하우스 2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>재생 수266,161</t>
+          <t>재생 수276,103</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>좋아요 수25,141</t>
+          <t>좋아요 수2,601</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>교사 전원이 학대…또 나온 영상엔 '쥐어뜯고 발로 차고'</t>
+          <t>[선공개] 시원하게 스포(?) 하는 이지아와 뺨 맞는 동생들</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>JTBC뉴스</t>
+          <t>집사부일체</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>재생 수27,757</t>
+          <t>재생 수91,146</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>좋아요 수37</t>
+          <t>좋아요 수1,076</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>＂음성 녹음을 제출하겠습니다...＂ 이일화가 전달해준 결정적 증거, 바로 이진우의 핸드폰!   | KBS 210210 방송</t>
+          <t>보육원 원장님에게 전화가 온 전인화! 뜻밖의 소식을 전해 듣는데... ＂라훈이 친모 같아서...＂  | KBS 210221 방송</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>비밀의 남자</t>
+          <t>오! 삼광빌라!</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>재생 수18,252</t>
+          <t>재생 수4,133</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>좋아요 수56</t>
+          <t>좋아요 수18</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[MV] 김호중(Kim Hojoong) _ 우산이 없어요(No umbrella)</t>
+          <t>“내 돈 내놔! 나 안 해!!” 이광수, 또 속은 주린이♨</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1theK (원더케이)</t>
+          <t>런닝맨</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>재생 수267,847</t>
+          <t>재생 수17,714</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>좋아요 수13,335</t>
+          <t>좋아요 수151</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>제대로 칼 갈고 나타난 '라포엠'의 파격 무대 〈Joke's On You〉♬ | JTBC 210209 방송</t>
+          <t>김소연, 묘한 안연홍 모습에 꺼림직한 기분</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>팬텀싱어 올스타전</t>
+          <t>펜트하우스 2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>재생 수57,027</t>
+          <t>재생 수211,211</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>좋아요 수5,417</t>
+          <t>좋아요 수935</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>이찬원 ‘여여’♬ 무대를 즐기는 자가 진정한 승리자^^ TV CHOSUN 20210205 방송</t>
+          <t>[초대가수 무대] 김호중 - 할무니</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>사랑의 콜센타</t>
+          <t>노래가 좋아</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>재생 수63,627</t>
+          <t>재생 수252,450</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>좋아요 수9,465</t>
+          <t>좋아요 수21,374</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>[선공개] 2011년생이 들려주는 ＜목포의 눈물💦＞ (ft. 홍'잠언위키'📑), MBC 210210 방송</t>
+          <t>“조용히 나갈래요? 맞고 나갈래요?” 종민 vs 라비의 숨 막히는 대치 상황  | KBS 210221 방송</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>라디오스타</t>
+          <t>1박 2일 시즌4</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>재생 수55,745</t>
+          <t>재생 수9,286</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>좋아요 수305</t>
+          <t>좋아요 수143</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>조카 숨지게 한 이모 부부 구속…"결과 참혹·사안 중대"</t>
+          <t>송중기 면전에 훅 들어온 전여빈의 날카로운 촉! | tvN 210221 방송</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>JTBC뉴스</t>
+          <t>빈센조</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>재생 수22,405</t>
+          <t>재생 수13,104</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>좋아요 수19</t>
+          <t>좋아요 수51</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>"판사님, 저는 고양이가 아니에요" 화상 회의 중 변호사의 귀여운 실수</t>
+          <t>재혼 업체에 등록한 정보석?! 믿기지 않는 이장우와 진경! ＂업체에 등록을 했다고요?＂ | KBS 210221 방송</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>뉴스는 YTN</t>
+          <t>오! 삼광빌라!</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>재생 수27,591</t>
+          <t>재생 수3,919</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>좋아요 수139</t>
+          <t>좋아요 수26</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>[MV] 영탁(Young Tak) _ 이불(Comforter)</t>
+          <t>황신혜를 설득하는 보나♥동하! 진심으로 섭섭한 황신혜... ＂내가 네 새엄마라서!＂ | KBS 210221 방송</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1theK (원더케이)</t>
+          <t>오! 삼광빌라!</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>재생 수36,207</t>
+          <t>재생 수3,537</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>좋아요 수5,665</t>
+          <t>좋아요 수52</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>장태훈의 비밀의 여자는 바로... ＂너야, 강예진!＂ 장태훈-채빈, 다시 시작된 사랑♡ | KBS 210210 방송</t>
+          <t>＂나 두 사람 마음에 안 들어＂ 전성우와 보나에게 선긋는 황신혜! 단호하게 말하는데... | KBS 210221 방송</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>비밀의 남자</t>
+          <t>오! 삼광빌라!</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>재생 수17,655</t>
+          <t>재생 수3,989</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>좋아요 수61</t>
+          <t>좋아요 수56</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>"불났을때 도와주셔야지" 재방문한 시장서 쓴소리 들은 文대통령</t>
+          <t>장민호 ‘인생’♪ 당신의 고막에 치얼스..👂🏻 TV CHOSUN 210219 방송</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TV조선 뉴스</t>
+          <t>사랑의 콜센타</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>재생 수14,220</t>
+          <t>재생 수19,090</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>좋아요 수29</t>
+          <t>좋아요 수3,103</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>＂다 제가 저지른 일입니다!＂ 거짓 증언하는 이정용 향해 분노하는 강은탁♨ | KBS 210210 방송</t>
+          <t>[리뷰] 이강인 극장골 환상 왼발 어시스트 '발렌시아 최고 경기력 셀타비고 제압'</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>비밀의 남자</t>
+          <t>한준TV</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>재생 수15,623</t>
+          <t>재생 수289,236</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>좋아요 수43</t>
+          <t>좋아요 수651</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>팔목 묶인 흔적, 욕조에 잡고 누르고…역할 나눠 학대</t>
+          <t>§천상의 목소리§ 김호중과 함께 웃을 ‘때’♬</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>JTBC뉴스</t>
+          <t>사랑의 콜센타</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>재생 수16,098</t>
+          <t>재생 수353,545</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>좋아요 수17</t>
+          <t>좋아요 수16,667</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>영웅❤정현❤선준 ‘라라라’♫ 친구들과 함께 부르는 추억의 노래🌸 TV CHOSUN 210203 방송</t>
+          <t>[3회 예고] “이제 시작이야 기대해” 유진, 김소연 향해 선전포고</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>뽕숭아학당</t>
+          <t>펜트하우스 2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>재생 수60,960</t>
+          <t>재생 수249,679</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>좋아요 수8,975</t>
+          <t>좋아요 수1,231</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>'매직넘버 -2' 우리은행, KB스타즈 꺾고 단독 1위!</t>
+          <t>＂해든아 한 번만 져주면 안 될까?＂ 서운해하는 보나에게 부탁하는 동하! 속상한 전인화...  | KBS 210221 방송</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>여자프로농구_네이버스포츠</t>
+          <t>오! 삼광빌라!</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>재생 수4,966</t>
+          <t>재생 수3,374</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>좋아요 수73</t>
+          <t>좋아요 수55</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>들어오라고 안 했다면…강풍 속 생명 구한 '손짓'｜뉴스브리핑</t>
+          <t>마이클 잭슨 추억도 삼킨 무주 리조트 화재</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>JTBC뉴스</t>
+          <t>뉴스는 YTN</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>재생 수10,727</t>
+          <t>재생 수12,005</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>좋아요 수5</t>
+          <t>좋아요 수11</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>“자기들~♥” 이선빈, 친구들과 교복 입고 추억 파티★</t>
+          <t>‘따귀의 달인’ 양세형, 뺨 소리에 쓰리퀸 문화충격! (ft. 김동현)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>나의 판타집</t>
+          <t>집사부일체</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>재생 수7,884</t>
+          <t>재생 수4,179</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>좋아요 수25</t>
+          <t>좋아요 수70</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>[파이널 무대] 여전히 꿈에 목말라있는 이승윤의 무대🌊 〈물〉♬ | JTBC 210208 방송</t>
+          <t>“안쓰럽네..” 유진, 날뛰는 김소연 향한 쿨한 완승!</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>싱어게인</t>
+          <t>펜트하우스 2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>재생 수605,237</t>
+          <t>재생 수164,694</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>좋아요 수12,572</t>
+          <t>좋아요 수1,177</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>[단독] 울먹이며 "때려서 물에 빠뜨려"…이모 부부 구속</t>
+          <t>[2화 단독 선공개] ＂너 뭐하는 짓이야 XX!＂ 이서진, 이주영 전화에 극대노♨</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SBS뉴스</t>
+          <t>타임즈</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>재생 수10,624</t>
+          <t>재생 수12,731</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>좋아요 수14</t>
+          <t>좋아요 수69</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>리코더 장인의 '왕벌의 비행'+'베토벤 피아노 소나타'연주 직접 들어봤습니다...! | tvN 210210 방송</t>
+          <t>‘천하장사’ 유진, 특전사 이승기도 이겨버린 힘★</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>유 퀴즈 온 더 블럭</t>
+          <t>집사부일체</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>재생 수5,700</t>
+          <t>재생 수3,474</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>좋아요 수83</t>
+          <t>좋아요 수119</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>리코더 학과 차석 남형주 자기님께 배우는 '신기한 리코더와 음악의 역사' ♬ | tvN 210210 방송</t>
+          <t>김소연×유진×이지아, 스포 놀이에 신난 쓰리 퀸!</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>유 퀴즈 온 더 블럭</t>
+          <t>집사부일체</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>재생 수4,982</t>
+          <t>재생 수6,564</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>좋아요 수31</t>
+          <t>좋아요 수138</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>한 편의 영화를 본 듯한 포레스텔라의 감성 열창💧 〈Je Suis Malade〉♬ | JTBC 210209 방송</t>
+          <t>[단독] "집에 불러 몽둥이로 때려"…수년간 경비원 폭행</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>팬텀싱어 올스타전</t>
+          <t>MBC뉴스</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>재생 수33,686</t>
+          <t>재생 수5,586</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>좋아요 수2,576</t>
+          <t>좋아요 수7</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>일본 잠수함, 충돌 3시간 뒤…휴대전화로 "사고 났다"</t>
+          <t>하늘에서 떨어진 수십 개 쇳덩이들…여객기 파편 주택가 덮쳐 '아찔'</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>JTBC뉴스</t>
+          <t>MBN 뉴스</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>재생 수9,241</t>
+          <t>재생 수3,414</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>좋아요 수10</t>
+          <t>좋아요 수4</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>구미 빈집서 3살 추정 여아 숨진 채 발견…엄마 체포</t>
+          <t>“내 여자야?!” 윤종훈, 사랑꾼 박력남으로 대변신!</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>JTBC뉴스</t>
+          <t>펜트하우스 2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>재생 수14,267</t>
+          <t>재생 수168,400</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>좋아요 수13</t>
+          <t>좋아요 수1,248</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>정인이 살릴 마지막 기회…외면한 경찰들 정직 3개월</t>
+          <t>김선영 마음 풀어주는 인교진! 얼굴에 미소가 지어지는 김선영! ＂내가 망쳐버려서 미안해...＂ | KBS 210221 방송</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>JTBC뉴스</t>
+          <t>오! 삼광빌라!</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>재생 수10,994</t>
+          <t>재생 수2,661</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>좋아요 수11</t>
+          <t>좋아요 수16</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>'포르테 디 콰트로'의 화려한 일탈! 〈도시의 Opera〉♪ | JTBC 210209 방송</t>
+          <t>정동원♥구혜선 ‘잠 못 드는 밤 비는 내리고’♪ 이 조합 찬성😍TV CHOSUN 210219 방송</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>팬텀싱어 올스타전</t>
+          <t>사랑의 콜센타</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>재생 수73,535</t>
+          <t>재생 수163,430</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>좋아요 수2,768</t>
+          <t>좋아요 수3,368</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>일본, 기껏 구한 코로나19 백신 1,200만 명분 폐기하나?</t>
+          <t>김소연, 고음 불가에 붉으락푸르락 (ft. 이상우 기자)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>뉴스는 YTN</t>
+          <t>펜트하우스 2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>재생 수6,967</t>
+          <t>재생 수271,033</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>좋아요 수8</t>
+          <t>좋아요 수2,613</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>오지호♡은보아, 무속인 날카로운 첫마디에 경악!</t>
+          <t>트롯 재주꾼♕ 김희재 ‘당신은 어디 있나요’♬ TV CHOSUN 210219 방송</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>동상이몽2_너는 내 운명</t>
+          <t>사랑의 콜센타</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>재생 수62,516</t>
+          <t>재생 수17,735</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>좋아요 수110</t>
+          <t>좋아요 수2,830</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>영생교 집단감염 43명 추가 확진…"확산 우려"</t>
+          <t>밝은 미래를 꿈꾸는 ‘송가인’의 ‘트로트가 나는 좋아요’</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MBC뉴스</t>
+          <t>SBS 인기가요</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>재생 수9,001</t>
+          <t>재생 수4,133</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>좋아요 수8</t>
+          <t>좋아요 수1,166</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>"박원순은 롤모델"…우상호 발언에 정치권 '시끌'</t>
+          <t>유진×윤종훈, 우린 비즈니스 파트너 (ft. 그런데 왜 달달)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MBC뉴스</t>
+          <t>펜트하우스 2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>재생 수6,886</t>
+          <t>재생 수151,030</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>좋아요 수3</t>
+          <t>좋아요 수1,361</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>美, WHO 조사 못 믿겠다...中, 이젠 미국 차례 '역공'</t>
+          <t>[단독] 대법원, 최강욱 발의 '윤석열 출마 방지법'에 차별 논란 우려</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>뉴스는 YTN</t>
+          <t>TV조선 뉴스</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>재생 수6,845</t>
+          <t>재생 수6,318</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>좋아요 수4</t>
+          <t>좋아요 수3</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>험지는 다리로, 평지는 바퀴로…현대차그룹 '타이거' 공개</t>
+          <t>화이자도 이번 주 시작…'27일'부터 의료진 5만여 명</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MBN 뉴스</t>
+          <t>MBC뉴스</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>재생 수6,885</t>
+          <t>재생 수3,965</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>좋아요 수8</t>
+          <t>좋아요 수7</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>"바이러스는 마귀의 영…기도문 외워야" 영생교 황당 설교</t>
+          <t>“그 야비함!” 이지아, 양세형 선택한 이유에 大 폭소★</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>JTBC뉴스</t>
+          <t>집사부일체</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>재생 수8,506</t>
+          <t>재생 수3,930</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>좋아요 수13</t>
+          <t>좋아요 수99</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>[MBC 여론조사] 박영선-안철수, 여야 양자 대결 때는 초접전</t>
+          <t>이게 바로 청춘이다-★ 찬원X강은탁 ‘너만을 느끼며’♫ TV CHOSUN 210219 방송</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MBC뉴스</t>
+          <t>사랑의 콜센타</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>재생 수7,684</t>
+          <t>재생 수32,591</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>좋아요 수12</t>
+          <t>좋아요 수6,509</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5인 모임 막힌 설, 덜 막히는 고향길…이 시각 서울요금소</t>
+          <t>'백신 위크' 돌입…아스트라제네카에 화이자도 맞는다</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1578,117 +1578,117 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>재생 수7,329</t>
+          <t>재생 수6,456</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>좋아요 수4</t>
+          <t>좋아요 수7</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>신천지·인터콥·영생교까지…집단감염 온상 된 '이단'</t>
+          <t>TOP6의 작은 거인 정동원❀ ‘못다핀 꽃 한송이’♬ TV CHOSUN 210219 방송</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>JTBC뉴스</t>
+          <t>사랑의 콜센타</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>재생 수8,159</t>
+          <t>재생 수29,700</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>좋아요 수3</t>
+          <t>좋아요 수3,811</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>승리제단발 누적 확진자 96명…기숙사 내부사진 보니</t>
+          <t>“오 마이갓!!” 이승기, 후드로 숨게 만든 신인시절 무대★</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>JTBC뉴스</t>
+          <t>집사부일체</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>재생 수16,654</t>
+          <t>재생 수3,029</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>좋아요 수2</t>
+          <t>좋아요 수196</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>전국에 영생교 지부…제2의 '신천지' 재현되나?</t>
+          <t>10년차 내공과 모든 운을 이 무대에 쏟는다! 진한 여운을 남기는 무대 ‘진해성 - 공’ | KBS 210220 방송</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MBC뉴스</t>
+          <t>트롯전국체전</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>재생 수6,050</t>
+          <t>재생 수58,276</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>좋아요 수8</t>
+          <t>좋아요 수1,696</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>"미성년자라도 괜찮아"…범죄 소굴된 채팅 앱</t>
+          <t>유진♡윤종훈, 화려한 불청객으로 등장☆</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MBC뉴스</t>
+          <t>펜트하우스 2</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>재생 수4,248</t>
+          <t>재생 수134,770</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>좋아요 수5</t>
+          <t>좋아요 수888</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>3시간 넘게 폭행·물고문…이제서야 "미안하다"</t>
+          <t>무주리조트 호텔 시뻘건 불길…80여 명 한밤 긴급대피</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MBC뉴스</t>
+          <t>JTBC뉴스</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>재생 수11,062</t>
+          <t>재생 수7,006</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1700,183 +1700,183 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>축 탄생♥ 엉또 빛 보다..✧ 멋진 왕자님 탄생🎉 TV CHOSUN 20210209 방송</t>
+          <t>김소연, 유진 헤라 펠리스 입주 소식에 분노 폭발!</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>아내의 맛</t>
+          <t>펜트하우스 2</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>재생 수150,892</t>
+          <t>재생 수132,180</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>좋아요 수801</t>
+          <t>좋아요 수633</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>[오늘 이 뉴스] 동양인은 쉬운 표적?…美 또 동양인 '묻지마 폭행'</t>
+          <t>‘매의 눈’ 이승기, 이지아 ’밑장 빼기’ 잡기 위한 눈빛!</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MBC뉴스</t>
+          <t>집사부일체</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>재생 수4,490</t>
+          <t>재생 수2,703</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>좋아요 수5</t>
+          <t>좋아요 수149</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>짙은 여운을 남기는 '라포엠'의 진심 어린 위로송 〈한숨〉♬ | JTBC 210202 방송</t>
+          <t>'안동 산불' 5시간째 확산…주민 3백 가구 긴급 대피</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>팬텀싱어 올스타전</t>
+          <t>MBC뉴스</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>재생 수140,766</t>
+          <t>재생 수3,749</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>좋아요 수6,824</t>
+          <t>좋아요 수3</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>＂이제부터 나... 한재수로 산다!＂ 마침내 유치장에서 풀려난 박철민, 신원도 회복☆ | KBS 210210 방송</t>
+          <t>‘리액션 부자’ 김소연, 반전 매력 본캐 美 뿜뿜♥</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>누가 뭐래도</t>
+          <t>집사부일체</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>재생 수4,454</t>
+          <t>재생 수6,863</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>좋아요 수29</t>
+          <t>좋아요 수158</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>[89회 예고] ＂언제까지 비밀로 하려고..＂ [누가 뭐래도] | KBS 방송</t>
+          <t>‘팬입니다♡’ 김소연, 아마추어 실력자! 바다와 만담</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>누가 뭐래도</t>
+          <t>펜트하우스 2</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>재생 수5,502</t>
+          <t>재생 수167,249</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>좋아요 수36</t>
+          <t>좋아요 수857</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>"남들 손절할 때 더 샀다" 3천만 원이 8억 원 된 비결 [부터뷰]</t>
+          <t>[선공개] 박주미에게 문자를 숨기는 이태곤!! 뭔가 수상해.. 😑 TV CHOSUN 20210221 방송</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>한국경제TV - 신속한 경제/증권 채널</t>
+          <t>결혼작사 이혼작곡</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>재생 수9,365</t>
+          <t>재생 수26,518</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>좋아요 수26</t>
+          <t>좋아요 수55</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>"남들 손절할 때 더 샀다" 3천만 원이 8억 원 된 비결 [부터뷰]</t>
+          <t>엄효섭의 수선집을 알아버린 진기주! 진기주가 선물한 옷을 안고 오열하는 엄효섭ㅠㅠ | KBS 210221 방송</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>한국경제TV - 신속한 경제/증권 채널</t>
+          <t>오! 삼광빌라!</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>재생 수9,365</t>
+          <t>재생 수3,830</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>좋아요 수26</t>
+          <t>좋아요 수39</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>＂그 서류에 제 아버지 목숨이 달렸거든요!＂ 유언장을 먼저 손에 넣는 것은 누구?! | KBS 210210 방송</t>
+          <t>송지효, 뒤늦게 알아버린 주식의 참맛!</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>누가 뭐래도</t>
+          <t>런닝맨</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>재생 수3,201</t>
+          <t>재생 수5,840</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>좋아요 수17</t>
+          <t>좋아요 수77</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>한 방에 2~3명 공동생활…"집에서 누가 마스크 쓰나"</t>
+          <t>전복된 어선 생존자 극적 구조…"에어포켓서 40시간"</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1886,41 +1886,41 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>재생 수7,337</t>
+          <t>재생 수4,597</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>좋아요 수3</t>
+          <t>좋아요 수12</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>[몰입도 甲] 캐릭터로 보는 펜트하우스 시즌 2! 순식간에 몰입하는 배우들의 연기력 (소오오름..)</t>
+          <t>155밀리 곡사포가 직접사격으로 전차를 파괴한다! M109A6 자주포와 M777 견인포 직접사격</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>펜트하우스 2</t>
+          <t>유용원 TV</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>재생 수27,842</t>
+          <t>재생 수50,379</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>좋아요 수412</t>
+          <t>좋아요 수6</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>"저 대신 시댁 신고 좀"…속 태우는 며느리들｜오늘의 정식</t>
+          <t>내 차례 언제쯤?…가상 4인가족으로 본 '백신 시간표'</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1930,239 +1930,239 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>재생 수31,768</t>
+          <t>재생 수5,134</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>좋아요 수61</t>
+          <t>좋아요 수6</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>산모의 고통... 끝 모를 진통에 힘들어 하는 은영 ㅠㅠ TV CHOSUN 20210209 방송</t>
+          <t>자비 있는 마피아 송중기의 약속~도장~꾸욱!!! | tvN 210221 방송</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>아내의 맛</t>
+          <t>빈센조</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>재생 수57,087</t>
+          <t>재생 수2,793</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>좋아요 수203</t>
+          <t>좋아요 수27</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>[철인왕후: 대나무숲] 차마 말할 수 없었던 궁 안의 비밀들 | 공식 예고편</t>
+          <t>사과 먹다 말고 갑자기 분위기 키스👄 TV CHOSUN 20210220 방송</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>티빙(TVING)</t>
+          <t>결혼작사 이혼작곡</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>재생 수156,972</t>
+          <t>재생 수45,831</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>좋아요 수504</t>
+          <t>좋아요 수71</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>65세 이상은 접종 신중하게?…기준 없어 혼란 '부채질'</t>
+          <t>10대 소년마저 총탄에 쓰러져…지금까지 최소 4명 사망</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>JTBC뉴스</t>
+          <t>MBC뉴스</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>재생 수6,374</t>
+          <t>재생 수2,502</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>좋아요 수1</t>
+          <t>좋아요 수3</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>[구스뉴스] 내 취향 어떻게 알았지?…유튜브 '추천의 함정'</t>
+          <t>'남매 모드' 벗어난 민주당...야권은 최종 단일 후보 신경전</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>JTBC뉴스</t>
+          <t>뉴스는 YTN</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>재생 수3,673</t>
+          <t>재생 수2,180</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>좋아요 수5</t>
+          <t>좋아요 수2</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>[와썹맨X] PPL에 후진은 없습니다. 일단 박수부터 치고보는 자낳괴 리액션 💸ㅣEP.2</t>
+          <t>★무대 최초 공개☆ 장윤정 메들리 ‘옆집 누나’ ‘돼지토끼’♬ TV CHOSUN 210218 방송</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>와썹맨</t>
+          <t>내일은 미스트롯2</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>재생 수114,075</t>
+          <t>재생 수192,173</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>좋아요 수638</t>
+          <t>좋아요 수3,209</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>초등생 ‘유인 성폭행’ 30대 남성, 나흘 만에 체포</t>
+          <t>금메달을 노리는 데뷔 10년 차 현역 가수 자존심! ‘진해성 - 바람고개’ | KBS 210220 방송</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>채널A뉴스</t>
+          <t>트롯전국체전</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>재생 수6,353</t>
+          <t>재생 수35,954</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>좋아요 수13</t>
+          <t>좋아요 수1,118</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>텅 빈 마을버스…"사채로 기사 월급 준다"</t>
+          <t>'눈사람' VS '눈오리'의 1라운드 무대 - 인형, MBC 210221 방송</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>SBS뉴스</t>
+          <t>복면가왕</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>재생 수5,614</t>
+          <t>재생 수8,342</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>좋아요 수6</t>
+          <t>좋아요 수546</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>호텔서 만취 난동…잡고 보니 경찰 간부</t>
+          <t>[게임산업에 이런 일이] 콘솔 게임이 대세…영화관 스크린으로도 즐긴다</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MBC뉴스</t>
+          <t>MBN 뉴스</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>재생 수6,448</t>
+          <t>재생 수2,403</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>좋아요 수4</t>
+          <t>좋아요 수1</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>"아이가 있었다면"…대형마트서 쇼핑카트 내리막길 질주 '쾅'</t>
+          <t>운동부·무도장 잇단 감염…거리두기 '2.5단계' 위협</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MBN 뉴스</t>
+          <t>MBC뉴스</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>재생 수6,120</t>
+          <t>재생 수2,673</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>좋아요 수6</t>
+          <t>좋아요 수2</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>[하이라이트] 독살?! 지옥문 오픈한 신혜선, 김정현과 갓벽 동맹! 소봉&amp;전하 사이다 복수전 2탄</t>
+          <t>이광수×유재석, ‘떡락한 주식’ 송지효에게 멱살 잡히다!</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>철인왕후</t>
+          <t>런닝맨</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>재생 수36,136</t>
+          <t>재생 수6,555</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>좋아요 수279</t>
+          <t>좋아요 수90</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>'농구 괴물 유망주' 여준석…'고등학생 맞아?'</t>
+          <t>마이클 잭슨 묵었던 '무주' 호텔 불타…투숙객 대피</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2172,73 +2172,73 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>재생 수4,458</t>
+          <t>재생 수2,681</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>좋아요 수2</t>
+          <t>좋아요 수0</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>부산경찰 또 일탈…호텔 난동 제지당하자 "경찰 불러"</t>
+          <t>＂라훈이 만나러 온 거 맞나요?＂ 강경헌을 찾아간 전인화! 울면서 사죄하는 강경헌...  | KBS 210221 방송</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>JTBC뉴스</t>
+          <t>오! 삼광빌라!</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>재생 수5,528</t>
+          <t>재생 수2,137</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>좋아요 수7</t>
+          <t>좋아요 수17</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>귀로 듣는 감성 멜로드라마, 레떼아모르의 〈내 생에 아름다운〉♬ | JTBC 210209 방송</t>
+          <t>신현수 "이미 동력 상실" 지인에 문자…22일 출근해 거취 정리할 듯</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>팬텀싱어 올스타전</t>
+          <t>TV조선 뉴스</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>재생 수37,414</t>
+          <t>재생 수4,324</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>좋아요 수2,137</t>
+          <t>좋아요 수5</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>[집중취재M] 윤석열은 무혐의·김은경은 감옥행…'직권남용'의 비밀</t>
+          <t>"때리고 마사지 시켜"…구단 "자체 진상 조사 중"</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MBC뉴스</t>
+          <t>SBS뉴스</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>재생 수2,406</t>
+          <t>재생 수8,227</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2250,462 +2250,396 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>세상에 이런 전략이…'당황하셨어요?'</t>
+          <t>‘근육 헌팅남’ 김종국, 유재석 지인 소개 제안에 표정관리 불가!</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MBC뉴스</t>
+          <t>런닝맨</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>재생 수4,062</t>
+          <t>재생 수5,172</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>좋아요 수1</t>
+          <t>좋아요 수84</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>[펜트하우스] “시즌1 비하인드라고?” 김소연×엄기준, 벌써 떨리는 코멘터리!</t>
+          <t>자는 보나 옆에 슬쩍 누워보는 동하...♥ 로미오와 줄리엣이 되어버리는데ㅠㅠ | KBS 210221 방송</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>펜트하우스 2</t>
+          <t>오! 삼광빌라!</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>재생 수89,493</t>
+          <t>재생 수2,465</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>좋아요 수839</t>
+          <t>좋아요 수56</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>19세 여성 머리에 박힌 총탄…"미얀마를 구하라"</t>
+          <t>스페인 언론 최고 평점 극찬 "이강인 두 번 패스가 경기 바꿨다" (셀타비고전)</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MBC뉴스</t>
+          <t>한준TV</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>재생 수4,708</t>
+          <t>재생 수60,011</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>좋아요 수7</t>
+          <t>좋아요 수150</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>우상호 "박원순은 내 동지"…2차 가해 거센 비판</t>
+          <t>“900%?!” 지석진, 거짓 정보 들은 양세찬×전소민 좋은 날♬</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>SBS뉴스</t>
+          <t>런닝맨</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>재생 수4,211</t>
+          <t>재생 수6,325</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>좋아요 수1</t>
+          <t>좋아요 수77</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>오지호, 심장을 꿰뚫어 보는 자기 운세에 화들짝↗</t>
+          <t>김교수를 만나는 엄효섭! 멱살에 협박까지 당하는데...! ＂형님은 그냥 가만히 계셔＂ | KBS 210221 방송</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>동상이몽2_너는 내 운명</t>
+          <t>오! 삼광빌라!</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>재생 수65,967</t>
+          <t>재생 수2,504</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>좋아요 수92</t>
+          <t>좋아요 수13</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>[MBC 여론조사] 야권 후보로 누가 적합? 안철수 1위</t>
+          <t>‘어쩌다 마주친 그대’♬ 희재와 박진주의 시~원한 가창력✌ TV CHOSUN 210219 방송</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>MBC뉴스</t>
+          <t>사랑의 콜센타</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>재생 수4,709</t>
+          <t>재생 수60,817</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>좋아요 수6</t>
+          <t>좋아요 수2,469</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>駐北 체코대사관 측 "北 전력난 심각…몇달간 설탕·식용유 못봐"</t>
+          <t>봉쇄 푸는 이스라엘…'그린 패스' 소지해야 시설 이용</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>TV조선 뉴스</t>
+          <t>JTBC뉴스</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>재생 수2,197</t>
+          <t>재생 수3,213</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>좋아요 수0</t>
+          <t>좋아요 수2</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>'의회 습격' 영상 공개…트럼프 대장의 '진격 명령'</t>
+          <t>10년의 한을 풀다! 트롯 전국체전 빛나는 금메달의 주인공★ 진해성 | KBS 210220 방송</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>MBC뉴스</t>
+          <t>트롯전국체전</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>재생 수3,997</t>
+          <t>재생 수49,518</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>좋아요 수3</t>
+          <t>좋아요 수1,039</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>김대기 전 수석 "이웅열과 함께 골프장 만찬"…뒤늦게 인정</t>
+          <t>靑 "신현수 붙잡기 힘들다" 판단한 듯…'친조국' 김용민 "尹 그림자 보여"</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>JTBC뉴스</t>
+          <t>TV조선 뉴스</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>재생 수5,378</t>
+          <t>재생 수4,036</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>좋아요 수2</t>
+          <t>좋아요 수9</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>'미나리 OST' 먼저…오스카 음악·주제가상 예비후보</t>
+          <t>이광수, 양세찬 거짓 정보에 초특급 떡상주 등극!</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>JTBC뉴스</t>
+          <t>런닝맨</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>재생 수3,552</t>
+          <t>재생 수4,519</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>좋아요 수1</t>
+          <t>좋아요 수58</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>“北, 생필품 동나고 전력난도 심각”…김정은은 잇단 경제 다잡기</t>
+          <t>반바지 입고 훈련…뜨거운 '울산 캠프'</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>KBS뉴스</t>
+          <t>SBS뉴스</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>재생 수6,482</t>
+          <t>재생 수2,398</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>좋아요 수0</t>
+          <t>좋아요 수2</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>[백브리핑] 시장 찾은 대통령에 "그때 도와주셨어야지"</t>
+          <t>끝나지 않은 연고전?! 고대 현주엽vs연대 우지원의 불꽃튀는 신경전⚡ | JTBC 210221 방송</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>JTBC뉴스</t>
+          <t>뭉쳐야 쏜다</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>재생 수2,766</t>
+          <t>재생 수2,219</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>좋아요 수4</t>
+          <t>좋아요 수17</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>"골프장 제출 명단, 신원 확인 불가"…구청, 수사의뢰 검토</t>
+          <t>밥 먹는 려운을 지긋이 쳐다보는 전인화... 마음이 복잡한데ㅠㅠ ＂친엄마면 좋을 텐데...＂  | KBS 210221 방송</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>JTBC뉴스</t>
+          <t>오! 삼광빌라!</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>재생 수4,739</t>
+          <t>재생 수2,522</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>좋아요 수4</t>
+          <t>좋아요 수14</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>[단독]성폭행 피해 아동 “깜깜한 방에 휴대전화 4대 있었어요”</t>
+          <t>＂저 자꾸 쳐다보시더라고요＂ 드디어 려운을 마주한 강경헌! 려운을 안아주는 전인화.. | KBS 210221 방송</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>채널A뉴스</t>
+          <t>오! 삼광빌라!</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>재생 수6,373</t>
+          <t>재생 수2,178</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>좋아요 수12</t>
+          <t>좋아요 수21</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>檢, '靑·백운규 개입' 산업부 공무원 진술 확보…채희봉 조사 임박</t>
+          <t>드라마 결혼작사 이혼작곡 10회 예고 TV CHOSUN 210221 방송</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>TV조선 뉴스</t>
+          <t>결혼작사 이혼작곡</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>재생 수2,799</t>
+          <t>재생 수38,806</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>좋아요 수6</t>
+          <t>좋아요 수65</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>아스트라제네카 최종 '합격'…65세 이상도 접종 가능</t>
+          <t>[2회 단독선공개] 엄기준 잡는 윤종훈의 초크 슬램!</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MBC뉴스</t>
+          <t>펜트하우스 2</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>재생 수5,722</t>
+          <t>재생 수353,718</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>좋아요 수2</t>
+          <t>좋아요 수2,830</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>정민아에게 크림 발라주려는 정헌ㅋㅋ ＂이건 정당한 스킨십 사유 아냐~?!＂ | KBS 210210 방송</t>
+          <t>＂아주 큰 모험 같습니다＂ 진기주의 친아빠와 인사를 나누는 정보석...!  | KBS 210221 방송</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>누가 뭐래도</t>
+          <t>오! 삼광빌라!</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>재생 수4,047</t>
+          <t>재생 수2,557</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>좋아요 수50</t>
+          <t>좋아요 수20</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>내연남 찾아 지방으로…7살 딸은 혼자 방치</t>
+          <t>155밀리 견인곡사포의 전차 파괴 사격, 미군의 주력 견인포 M777의 직접 사격 영상</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MBC뉴스</t>
+          <t>유용원 TV</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>재생 수4,148</t>
+          <t>재생 수23,806</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>좋아요 수3</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>[뉴있저] 김종인 "정상적인 엄마" 발언 논란...반복되는 정치권 말실수</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>뉴스는 YTN</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>재생 수4,466</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>좋아요 수5</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>[하이라이트] 염초 폭발♨김정현 연기력도 대폭발!! 배종옥x김태우에 팽팽히 맞서는 소봉&amp;전하 사이다 복수전 1탄</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>철인왕후</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>재생 수23,419</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>좋아요 수219</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>[와썹맨X] 웃음기 싹 뺐습니다..아찔한 슬로프 등반! 브레이크 없는 분노의 질주🔥ㅣEP.3</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>와썹맨</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>재생 수37,467</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>좋아요 수208</t>
+          <t>좋아요 수9</t>
         </is>
       </c>
     </row>
